--- a/data/user_PROD.xlsx
+++ b/data/user_PROD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97647D-D09F-4EC6-AD1F-BB6291CE0E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A158A9F-A6E7-43CB-958D-74A442C669CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>שם - חובה</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>דג</t>
+  </si>
+  <si>
+    <t>דרום</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
   <dimension ref="A1:AA971"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E3:E7"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1122,9 @@
         <v>19</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="F14" s="9">
         <v>528827064</v>
       </c>
